--- a/lib/PHPExcel/templates/postReport.xlsx
+++ b/lib/PHPExcel/templates/postReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518E09B6-5AE4-4B8C-A7E4-DABF033213AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A6316-EC08-4EE7-A9DE-0730AC049DF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,14 +64,14 @@
     <definedName name="PV_Réf_éprouvette">#REF!</definedName>
     <definedName name="PV_Température">#REF!</definedName>
     <definedName name="PV_εmax_imposée">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'En-tête'!$A$1:$G$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'En-tête'!$A$1:$I$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Rapport d'essai</t>
   </si>
@@ -205,18 +205,12 @@
     <t>BF</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
     <t>Thermo Couple</t>
   </si>
   <si>
     <t>en dehors des Couteaux</t>
   </si>
   <si>
-    <t>Position dans la section</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -244,13 +238,52 @@
     <t>Rayon</t>
   </si>
   <si>
-    <t>Raccordement du Rayon</t>
-  </si>
-  <si>
     <t>Couteaux Extensomètre</t>
   </si>
   <si>
     <t>entre Couteaux Extensomètre</t>
+  </si>
+  <si>
+    <t>Fracture position</t>
+  </si>
+  <si>
+    <t>Inertia Weld</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>At Radius</t>
+  </si>
+  <si>
+    <t>At eXtensometer probes</t>
+  </si>
+  <si>
+    <t>Inside eXtensometer probes</t>
+  </si>
+  <si>
+    <t>Outside eXtensometer probes</t>
+  </si>
+  <si>
+    <t>Sub Surface</t>
+  </si>
+  <si>
+    <t>Residual Tensile Load</t>
+  </si>
+  <si>
+    <t>Run Out</t>
+  </si>
+  <si>
+    <t>Void test</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Initiation position</t>
+  </si>
+  <si>
+    <t>Position de l'initiation</t>
   </si>
 </sst>
 </file>
@@ -258,9 +291,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00_)"/>
+    <numFmt numFmtId="164" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,27 +328,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF8193AB"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF8193AB"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -353,20 +367,32 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="48"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF8193AB"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="48"/>
-      <color rgb="FFC00000"/>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="6"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color rgb="FF8193AB"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -428,10 +454,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -443,53 +469,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -534,7 +550,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>135321</xdr:rowOff>
     </xdr:to>
@@ -582,50 +598,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>463285</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A06557-D9AB-4854-8658-940EA1738DC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1800226" y="2638425"/>
-          <a:ext cx="2692134" cy="2295525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1033,508 +1005,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="3"/>
-    <col min="10" max="12" width="10.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" style="3" customWidth="1"/>
     <col min="13" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="21" t="s">
+      <c r="H4" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="C8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="H9" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:8" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:8" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:8" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:8" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:8" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:8" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:8" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="6"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="6"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="6"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="6"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <v>3</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>4</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>6</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>7</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>8</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="4"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="27" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="6"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" s="18" customFormat="1" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A36" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
-      <c r="C37" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="6"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="6"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="6"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-      <c r="C43" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="6"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-      <c r="C44" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="6"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-      <c r="C45" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="6"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-      <c r="C46" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
+      <c r="E47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F3"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="1048575" man="1"/>
-  </colBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
@@ -1892,16 +1788,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>